--- a/GA/src/chxx.xlsx
+++ b/GA/src/chxx.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57DF150-4471-494D-BC3A-228494F058F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FB5064-6EAC-2C45-814F-18CDD2C29924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="6380" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{B06AF469-CF43-BB4C-A701-1880C53EB40B}"/>
+    <workbookView xWindow="71480" yWindow="7940" windowWidth="27240" windowHeight="16440" xr2:uid="{B06AF469-CF43-BB4C-A701-1880C53EB40B}"/>
   </bookViews>
   <sheets>
     <sheet name="wholesalerA" sheetId="1" r:id="rId1"/>
     <sheet name="wholesalerB" sheetId="2" r:id="rId2"/>
+    <sheet name="wholesalerC" sheetId="3" r:id="rId3"/>
+    <sheet name="wholesalerD" sheetId="4" r:id="rId4"/>
+    <sheet name="wholesalerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>day1</t>
   </si>
@@ -47,12 +50,15 @@
   <si>
     <t>productB</t>
   </si>
+  <si>
+    <t>productC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +89,13 @@
       <color theme="1"/>
       <name val="Fira Sans"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,12 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,9 +438,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136C6327-54F7-694F-AA6C-5A0FEC098D4E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BE7ED-E079-5342-A90A-87A0F515DB7F}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -446,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -457,10 +528,21 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
         <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -468,12 +550,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39BE7ED-E079-5342-A90A-87A0F515DB7F}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AEF37F-029E-B948-BF02-4A000BC48946}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -503,10 +585,135 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
         <v>6</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD56F200-7A4F-AC46-A311-A364C262BE6D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
       <c r="C3" s="4">
-        <v>8</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D6A35D-42DD-4044-86D2-5B8892D00E1A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="C4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
